--- a/database/seeds/f22.xlsx
+++ b/database/seeds/f22.xlsx
@@ -329,9 +329,6 @@
     <t>63492</t>
   </si>
   <si>
-    <t>Общий год</t>
-  </si>
-  <si>
     <t>SM - Сумма</t>
   </si>
   <si>
@@ -381,6 +378,9 @@
   </si>
   <si>
     <t>Прочие</t>
+  </si>
+  <si>
+    <t>ПРОВЕРИТЬ ID ПЕРИОДА!!</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000_ ;[Red]\-#,##0.000\ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +485,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="30"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1126,7 +1133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1284,6 +1291,9 @@
     <xf numFmtId="164" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1627,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1771,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" customFormat="1" ht="38.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -1780,11 +1790,13 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
+      <c r="M7" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -1969,38 +1981,38 @@
       <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="110" t="s">
+      <c r="M12" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="112" t="s">
+      <c r="N12" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="114" t="s">
+      <c r="O12" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="116" t="s">
+      <c r="P12" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="118" t="s">
+      <c r="Q12" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="119" t="s">
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="V12" s="101" t="s">
+      <c r="V12" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="W12" s="101"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="101"/>
-      <c r="AB12" s="102"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="104" t="s">
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="105" t="s">
         <v>47</v>
       </c>
       <c r="AE12" s="19" t="s">
@@ -2012,17 +2024,17 @@
       <c r="AI12" s="21"/>
       <c r="AJ12" s="21"/>
       <c r="AK12" s="21"/>
-      <c r="AL12" s="106" t="s">
+      <c r="AL12" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="AM12" s="107"/>
-      <c r="AN12" s="108"/>
+      <c r="AM12" s="108"/>
+      <c r="AN12" s="109"/>
     </row>
     <row r="13" spans="1:41" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M13" s="111"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="117"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="118"/>
       <c r="Q13" s="22" t="s">
         <v>49</v>
       </c>
@@ -2035,7 +2047,7 @@
       <c r="T13" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="U13" s="120"/>
+      <c r="U13" s="121"/>
       <c r="V13" s="22" t="s">
         <v>53</v>
       </c>
@@ -2060,7 +2072,7 @@
       <c r="AC13" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AD13" s="105"/>
+      <c r="AD13" s="106"/>
       <c r="AE13" s="22" t="s">
         <v>61</v>
       </c>
@@ -2303,21 +2315,21 @@
       <c r="AO16" s="47"/>
     </row>
     <row r="17" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H17" s="109" t="s">
-        <v>101</v>
+      <c r="H17" s="110">
+        <v>1</v>
       </c>
       <c r="I17" s="54" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="54" t="s">
         <v>102</v>
-      </c>
-      <c r="K17" s="54" t="s">
-        <v>103</v>
       </c>
       <c r="L17" s="56"/>
       <c r="M17" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N17" s="58" t="s">
         <v>65</v>
@@ -2386,21 +2398,21 @@
       </c>
       <c r="AK17" s="66"/>
       <c r="AL17" s="68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM17" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN17" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H18" s="109"/>
+      <c r="H18" s="110"/>
       <c r="I18" s="54"/>
       <c r="J18" s="55"/>
       <c r="K18" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="71"/>
@@ -2464,10 +2476,10 @@
       <c r="AG18" s="66"/>
       <c r="AH18" s="66"/>
       <c r="AI18" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ18" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK18" s="66"/>
       <c r="AL18" s="68"/>
@@ -2475,11 +2487,11 @@
       <c r="AN18" s="70"/>
     </row>
     <row r="19" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H19" s="109"/>
+      <c r="H19" s="110"/>
       <c r="I19" s="54"/>
       <c r="J19" s="55"/>
       <c r="K19" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L19" s="56"/>
       <c r="M19" s="71"/>
@@ -2543,10 +2555,10 @@
       <c r="AG19" s="66"/>
       <c r="AH19" s="66"/>
       <c r="AI19" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ19" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK19" s="66"/>
       <c r="AL19" s="68"/>
@@ -2554,16 +2566,16 @@
       <c r="AN19" s="70"/>
     </row>
     <row r="20" spans="8:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="109"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="54"/>
       <c r="J20" s="55"/>
       <c r="K20" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="80"/>
       <c r="N20" s="81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O20" s="82">
         <v>0.12100000000000001</v>
@@ -2622,10 +2634,10 @@
       <c r="AG20" s="66"/>
       <c r="AH20" s="66"/>
       <c r="AI20" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ20" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK20" s="66"/>
       <c r="AL20" s="68"/>
@@ -2633,17 +2645,17 @@
       <c r="AN20" s="70"/>
     </row>
     <row r="21" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H21" s="109"/>
+      <c r="H21" s="110"/>
       <c r="I21" s="54"/>
       <c r="J21" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L21" s="56"/>
       <c r="M21" s="89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N21" s="90" t="s">
         <v>65</v>
@@ -2699,10 +2711,10 @@
       <c r="AG21" s="66"/>
       <c r="AH21" s="66"/>
       <c r="AI21" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ21" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK21" s="66"/>
       <c r="AL21" s="68"/>
@@ -2710,11 +2722,11 @@
       <c r="AN21" s="70"/>
     </row>
     <row r="22" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H22" s="109"/>
+      <c r="H22" s="110"/>
       <c r="I22" s="54"/>
       <c r="J22" s="55"/>
       <c r="K22" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="71"/>
@@ -2772,10 +2784,10 @@
       <c r="AG22" s="66"/>
       <c r="AH22" s="66"/>
       <c r="AI22" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ22" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK22" s="66"/>
       <c r="AL22" s="68"/>
@@ -2783,11 +2795,11 @@
       <c r="AN22" s="70"/>
     </row>
     <row r="23" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H23" s="109"/>
+      <c r="H23" s="110"/>
       <c r="I23" s="54"/>
       <c r="J23" s="55"/>
       <c r="K23" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L23" s="56"/>
       <c r="M23" s="71"/>
@@ -2845,10 +2857,10 @@
       <c r="AG23" s="66"/>
       <c r="AH23" s="66"/>
       <c r="AI23" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ23" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK23" s="66"/>
       <c r="AL23" s="68"/>
@@ -2856,16 +2868,16 @@
       <c r="AN23" s="70"/>
     </row>
     <row r="24" spans="8:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="109"/>
+      <c r="H24" s="110"/>
       <c r="I24" s="54"/>
       <c r="J24" s="55"/>
       <c r="K24" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="80"/>
       <c r="N24" s="81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O24" s="82">
         <v>0.12100000000000001</v>
@@ -2918,10 +2930,10 @@
       <c r="AG24" s="66"/>
       <c r="AH24" s="66"/>
       <c r="AI24" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ24" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK24" s="66"/>
       <c r="AL24" s="68"/>
@@ -2929,17 +2941,17 @@
       <c r="AN24" s="70"/>
     </row>
     <row r="25" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H25" s="109"/>
+      <c r="H25" s="110"/>
       <c r="I25" s="54"/>
       <c r="J25" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L25" s="56"/>
       <c r="M25" s="89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N25" s="90" t="s">
         <v>65</v>
@@ -3001,10 +3013,10 @@
       <c r="AG25" s="66"/>
       <c r="AH25" s="66"/>
       <c r="AI25" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ25" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK25" s="66"/>
       <c r="AL25" s="68"/>
@@ -3012,11 +3024,11 @@
       <c r="AN25" s="70"/>
     </row>
     <row r="26" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H26" s="109"/>
+      <c r="H26" s="110"/>
       <c r="I26" s="54"/>
       <c r="J26" s="55"/>
       <c r="K26" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L26" s="56"/>
       <c r="M26" s="71"/>
@@ -3080,10 +3092,10 @@
       <c r="AG26" s="66"/>
       <c r="AH26" s="66"/>
       <c r="AI26" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ26" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK26" s="66"/>
       <c r="AL26" s="68"/>
@@ -3091,11 +3103,11 @@
       <c r="AN26" s="70"/>
     </row>
     <row r="27" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H27" s="109"/>
+      <c r="H27" s="110"/>
       <c r="I27" s="54"/>
       <c r="J27" s="55"/>
       <c r="K27" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L27" s="56"/>
       <c r="M27" s="71"/>
@@ -3159,10 +3171,10 @@
       <c r="AG27" s="66"/>
       <c r="AH27" s="66"/>
       <c r="AI27" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ27" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK27" s="66"/>
       <c r="AL27" s="68"/>
@@ -3170,16 +3182,16 @@
       <c r="AN27" s="70"/>
     </row>
     <row r="28" spans="8:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H28" s="109"/>
+      <c r="H28" s="110"/>
       <c r="I28" s="54"/>
       <c r="J28" s="55"/>
       <c r="K28" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L28" s="56"/>
       <c r="M28" s="80"/>
       <c r="N28" s="81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O28" s="82">
         <v>0</v>
@@ -3238,10 +3250,10 @@
       <c r="AG28" s="66"/>
       <c r="AH28" s="66"/>
       <c r="AI28" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ28" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK28" s="66"/>
       <c r="AL28" s="68"/>
@@ -3249,17 +3261,17 @@
       <c r="AN28" s="70"/>
     </row>
     <row r="29" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H29" s="109"/>
+      <c r="H29" s="110"/>
       <c r="I29" s="54"/>
       <c r="J29" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K29" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L29" s="56"/>
       <c r="M29" s="89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N29" s="90" t="s">
         <v>65</v>
@@ -3315,10 +3327,10 @@
       <c r="AG29" s="66"/>
       <c r="AH29" s="66"/>
       <c r="AI29" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ29" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK29" s="66"/>
       <c r="AL29" s="68"/>
@@ -3326,11 +3338,11 @@
       <c r="AN29" s="70"/>
     </row>
     <row r="30" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H30" s="109"/>
+      <c r="H30" s="110"/>
       <c r="I30" s="54"/>
       <c r="J30" s="55"/>
       <c r="K30" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L30" s="56"/>
       <c r="M30" s="71"/>
@@ -3388,10 +3400,10 @@
       <c r="AG30" s="66"/>
       <c r="AH30" s="66"/>
       <c r="AI30" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ30" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK30" s="66"/>
       <c r="AL30" s="68"/>
@@ -3399,11 +3411,11 @@
       <c r="AN30" s="70"/>
     </row>
     <row r="31" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H31" s="109"/>
+      <c r="H31" s="110"/>
       <c r="I31" s="54"/>
       <c r="J31" s="55"/>
       <c r="K31" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L31" s="56"/>
       <c r="M31" s="71"/>
@@ -3461,10 +3473,10 @@
       <c r="AG31" s="66"/>
       <c r="AH31" s="66"/>
       <c r="AI31" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ31" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK31" s="66"/>
       <c r="AL31" s="68"/>
@@ -3472,16 +3484,16 @@
       <c r="AN31" s="70"/>
     </row>
     <row r="32" spans="8:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="109"/>
+      <c r="H32" s="110"/>
       <c r="I32" s="54"/>
       <c r="J32" s="55"/>
       <c r="K32" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L32" s="56"/>
       <c r="M32" s="80"/>
       <c r="N32" s="81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O32" s="82">
         <v>0</v>
@@ -3534,10 +3546,10 @@
       <c r="AG32" s="66"/>
       <c r="AH32" s="66"/>
       <c r="AI32" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ32" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK32" s="66"/>
       <c r="AL32" s="68"/>
@@ -3545,17 +3557,17 @@
       <c r="AN32" s="70"/>
     </row>
     <row r="33" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H33" s="109"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="54"/>
       <c r="J33" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K33" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L33" s="56"/>
       <c r="M33" s="89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N33" s="90" t="s">
         <v>65</v>
@@ -3611,10 +3623,10 @@
       <c r="AG33" s="66"/>
       <c r="AH33" s="66"/>
       <c r="AI33" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ33" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK33" s="66"/>
       <c r="AL33" s="68"/>
@@ -3622,11 +3634,11 @@
       <c r="AN33" s="70"/>
     </row>
     <row r="34" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H34" s="109"/>
+      <c r="H34" s="110"/>
       <c r="I34" s="54"/>
       <c r="J34" s="55"/>
       <c r="K34" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="71"/>
@@ -3684,10 +3696,10 @@
       <c r="AG34" s="66"/>
       <c r="AH34" s="66"/>
       <c r="AI34" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ34" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK34" s="66"/>
       <c r="AL34" s="68"/>
@@ -3695,11 +3707,11 @@
       <c r="AN34" s="70"/>
     </row>
     <row r="35" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H35" s="109"/>
+      <c r="H35" s="110"/>
       <c r="I35" s="54"/>
       <c r="J35" s="55"/>
       <c r="K35" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L35" s="56"/>
       <c r="M35" s="71"/>
@@ -3757,10 +3769,10 @@
       <c r="AG35" s="66"/>
       <c r="AH35" s="66"/>
       <c r="AI35" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ35" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK35" s="66"/>
       <c r="AL35" s="68"/>
@@ -3768,16 +3780,16 @@
       <c r="AN35" s="70"/>
     </row>
     <row r="36" spans="8:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="109"/>
+      <c r="H36" s="110"/>
       <c r="I36" s="54"/>
       <c r="J36" s="55"/>
       <c r="K36" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L36" s="56"/>
       <c r="M36" s="80"/>
       <c r="N36" s="81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="82">
         <v>0</v>
@@ -3830,10 +3842,10 @@
       <c r="AG36" s="66"/>
       <c r="AH36" s="66"/>
       <c r="AI36" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ36" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK36" s="66"/>
       <c r="AL36" s="98"/>
@@ -3841,7 +3853,8 @@
       <c r="AN36" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="M7:Q7"/>
     <mergeCell ref="V12:AC12"/>
     <mergeCell ref="AD12:AD13"/>
     <mergeCell ref="AL12:AN12"/>
